--- a/T分布与不确定度计算器.xlsx
+++ b/T分布与不确定度计算器.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300364B-DF52-4CB5-B858-B5CCB2706479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DDB4F-CF63-4AC4-B956-B881022382C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>置信概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,18 +89,6 @@
   </si>
   <si>
     <t>注：如果数据不足15个请直接留空格子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,7 +537,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,24 +550,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -739,26 +727,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">

--- a/T分布与不确定度计算器.xlsx
+++ b/T分布与不确定度计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8DDB4F-CF63-4AC4-B956-B881022382C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87839F44-4FF9-495C-AF4D-77E4F86A1D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>置信概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>T分布与不确定度计算器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(与μD对齐位数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(最高次有效数字为1,2保留两位,反之保留一位)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,12 +545,13 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="10.77734375" style="2" customWidth="1"/>
+    <col min="1" max="4" width="10.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
     <col min="7" max="16" width="10.77734375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="2"/>
@@ -657,7 +666,11 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
@@ -726,9 +739,22 @@
         <v>1.8402898314011137E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
-        <v>11</v>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="9" t="str">
+        <f>IF(J13*10^INT(-LOG(ABS(J13)))&lt;0.3,FIXED(E13,1-INT(LOG(J13)),1),FIXED(E13,-INT(LOG(J13)),1))</f>
+        <v>0.7955</v>
+      </c>
+      <c r="J15" s="9" t="str">
+        <f>IF(J13*10^INT(-LOG(ABS(J13)))&lt;0.3,FIXED(J13,1-INT(LOG(J13)),1),FIXED(J13,-INT(LOG(J13)),1))</f>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
